--- a/bank statement generator/bank_statements/statement_197.xlsx
+++ b/bank statement generator/bank_statements/statement_197.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 23.10.2024</t>
+          <t>KONTOSTAND AM 13.12.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,90 +759,74 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>26.10.</t>
+          <t>17.12.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>27.10.</t>
+          <t>18.12.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BURGER KING Gießen</t>
+          <t>BURGER KING Duderstadt</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>32,34-</t>
+          <t>41,91-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>27.10.</t>
+          <t>19.12.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>28.10.</t>
+          <t>20.12.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>AMAZON.DE MKTPLC EU LGIYIQ</t>
+          <t>ABSCHLAG STROM Stadtwerke Rosenheim 59709452</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>215,45-</t>
+          <t>83,28-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>29.10.</t>
+          <t>23.12.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>30.10.</t>
+          <t>24.12.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 38890264</t>
+          <t>BEITRAG Allianz SE K-40826349</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>38,35-</t>
+          <t>54,16-</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="8" t="inlineStr">
-        <is>
-          <t>01.11.</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>02.11.</t>
-        </is>
-      </c>
-      <c r="D9" s="8" t="inlineStr">
-        <is>
-          <t>MCDONALDS Bergzabern</t>
-        </is>
-      </c>
-      <c r="E9" s="17" t="inlineStr">
-        <is>
-          <t>39,76-</t>
-        </is>
-      </c>
+      <c r="B9" s="8" t="n"/>
+      <c r="C9" s="8" t="n"/>
+      <c r="D9" s="8" t="n"/>
+      <c r="E9" s="13" t="n"/>
     </row>
     <row r="10">
       <c r="B10" s="8" t="n"/>
@@ -861,12 +845,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 06.11.2024</t>
+          <t>KONTOSTAND AM 25.12.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>325,90-</t>
+          <t>179,35-</t>
         </is>
       </c>
     </row>
@@ -874,7 +858,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 14.11.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 04.01.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
